--- a/characters info ORIGINAL JULY 2015.xlsx
+++ b/characters info ORIGINAL JULY 2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Documents\FV-Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/characters info ORIGINAL JULY 2015.xlsx
+++ b/characters info ORIGINAL JULY 2015.xlsx
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/characters info ORIGINAL JULY 2015.xlsx
+++ b/characters info ORIGINAL JULY 2015.xlsx
@@ -418,12 +418,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,12 +450,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1704,26 +1722,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1796,26 +1814,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1962,29 +1980,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2092,29 +2110,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>85</v>
       </c>
     </row>

--- a/characters info ORIGINAL JULY 2015.xlsx
+++ b/characters info ORIGINAL JULY 2015.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1876,29 +1876,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1980,29 +1980,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="4" t="s">
         <v>85</v>
       </c>
     </row>

--- a/characters info ORIGINAL JULY 2015.xlsx
+++ b/characters info ORIGINAL JULY 2015.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" activeCellId="1" sqref="A46:XFD46 A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
@@ -1954,29 +1954,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2006,55 +2006,55 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="I56" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>85</v>
       </c>
     </row>
